--- a/tabular/A3-mining.xlsx
+++ b/tabular/A3-mining.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="41660" windowHeight="17560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="41660" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DIGS cmplete" sheetId="1" r:id="rId1"/>
@@ -859,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -3190,7 +3190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="A2:C30"/>
     </sheetView>
   </sheetViews>
